--- a/modified_tables/table_4.xlsx
+++ b/modified_tables/table_4.xlsx
@@ -14,24 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>5,206</t>
-  </si>
-  <si>
-    <t>2,204</t>
-  </si>
-  <si>
-    <t>3,002</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>30</t>
+    <t>Flexible working hours</t>
+  </si>
+  <si>
+    <t>Full-time</t>
+  </si>
+  <si>
+    <t>Of which: female</t>
+  </si>
+  <si>
+    <t>Of which: male</t>
+  </si>
+  <si>
+    <t>Part-time</t>
+  </si>
+  <si>
+    <t>Virtual offices</t>
+  </si>
+  <si>
+    <t>Sabbatical</t>
+  </si>
+  <si>
+    <t>Semi-retirement (Altersteilzeit)</t>
   </si>
 </sst>
 </file>
@@ -389,39 +398,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="D2">
+        <v>58.4</v>
+      </c>
+      <c r="E2">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F2">
+        <v>21.1</v>
+      </c>
+      <c r="G2">
+        <v>41.6</v>
+      </c>
+      <c r="H2">
+        <v>6.1</v>
+      </c>
+      <c r="I2">
+        <v>13.2</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1.76</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="D3">
+        <v>59.9</v>
+      </c>
+      <c r="E3">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="F3">
+        <v>20.1</v>
+      </c>
+      <c r="G3">
+        <v>40.1</v>
+      </c>
+      <c r="H3">
+        <v>5.4</v>
+      </c>
+      <c r="I3">
+        <v>12.8</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>80.8</v>
+      </c>
+      <c r="F4">
+        <v>19.2</v>
+      </c>
+      <c r="I4">
+        <v>12.9</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
